--- a/xlsx/黄金储备_intext.xlsx
+++ b/xlsx/黄金储备_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_黄金储备</t>
+    <t>中央银行</t>
+  </si>
+  <si>
+    <t>政策_政策_货币政策_黄金储备</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91</t>
   </si>
   <si>
-    <t>黃金</t>
+    <t>黄金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9C%AC%E4%BD%8D</t>
@@ -53,55 +53,55 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>聯邦儲備銀行</t>
+    <t>联邦储备银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>瑞士銀行</t>
+    <t>瑞士银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%BB%83%E9%87%91%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>世界黃金協會</t>
+    <t>世界黄金协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際貨幣基金組織</t>
+    <t>国际货币基金组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -209,19 +209,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -281,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B8%85%E7%AE%97%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>國際清算銀行</t>
+    <t>国际清算银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
@@ -323,25 +323,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E8%B3%AA%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國地質調查局</t>
+    <t>美国地质调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E5%AF%B6</t>
   </si>
   <si>
-    <t>珠寶</t>
+    <t>珠宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91%E6%8A%95%E8%B3%87</t>
   </si>
   <si>
-    <t>黃金投資</t>
+    <t>黄金投资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%B1%87%E5%82%A8%E5%A4%87</t>
